--- a/PowerNodes.xlsx
+++ b/PowerNodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wany105\OneDrive - Vanderbilt\Research\ShelbyCounty_DataRead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{290781DF-06F4-404F-BD97-0F54F375D440}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{31D4391A-8FBE-4A56-873D-C236CC7C3953}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{290781DF-06F4-404F-BD97-0F54F375D440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A897ABC3-47BD-4DA3-A8F7-E4B778348869}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8348" yWindow="952" windowWidth="9045" windowHeight="9286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="10">
   <si>
     <t>NODE CLASS</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Intersection Point</t>
-  </si>
-  <si>
-    <t>23kV Substation</t>
-  </si>
-  <si>
-    <t>12kV Substation</t>
-  </si>
-  <si>
-    <t>Gate Station</t>
   </si>
   <si>
     <t>Lat</t>
@@ -62,15 +50,30 @@
   <si>
     <t>Long</t>
   </si>
+  <si>
+    <t>Power plant</t>
+  </si>
+  <si>
+    <t>12 or 23kv substation</t>
+  </si>
+  <si>
+    <t>Deliver station</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +387,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -395,10 +398,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -410,10 +413,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -424,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>726065.98739999998</v>
@@ -447,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>805753.48750000005</v>
@@ -470,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>773201.40430000005</v>
@@ -493,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>764086.82079999999</v>
@@ -516,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>849243.07079999999</v>
@@ -539,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>800805.57090000005</v>
@@ -562,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>786222.23750000005</v>
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>835961.82070000004</v>
@@ -608,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>877153.00150000001</v>
@@ -631,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>805753.48750000005</v>
@@ -654,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>846638.90410000004</v>
@@ -677,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>795857.65419999999</v>
@@ -700,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>825545.15419999999</v>
@@ -723,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>781795.15410000004</v>
@@ -746,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>771638.90410000004</v>
@@ -769,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>757576.40399999998</v>
@@ -792,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>730753.48750000005</v>
@@ -815,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>753670.15399999998</v>
@@ -838,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <v>782576.40419999999</v>
@@ -861,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>837003.48730000004</v>
@@ -884,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>786482.65430000005</v>
@@ -907,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>777107.65399999998</v>
@@ -930,7 +933,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
         <v>827368.07090000005</v>
@@ -953,7 +956,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>801586.82090000005</v>
@@ -976,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>860961.82090000005</v>
@@ -999,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>790649.32079999999</v>
@@ -1022,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
         <v>756534.73750000005</v>
@@ -1047,7 +1050,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
         <v>729625.01540000003</v>
@@ -1072,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <v>784833.34849999996</v>
@@ -1097,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1">
         <v>787263.90399999998</v>
@@ -1122,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
         <v>790909.73759999999</v>
@@ -1147,7 +1150,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
         <v>748375.01529999997</v>
@@ -1172,7 +1175,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
         <v>755511.68539999996</v>
@@ -1197,7 +1200,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>759833.34869999997</v>
@@ -1222,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1">
         <v>776847.23750000005</v>
@@ -1247,7 +1250,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1">
         <v>779798.6263</v>
@@ -1272,7 +1275,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <v>786743.07079999999</v>
@@ -1297,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1">
         <v>778930.57059999998</v>
@@ -1322,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1">
         <v>820250.01520000002</v>
@@ -1347,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1">
         <v>823895.84849999996</v>
@@ -1372,7 +1375,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
         <v>767298.62639999995</v>
@@ -1397,7 +1400,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1">
         <v>743861.1263</v>
@@ -1422,7 +1425,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1">
         <v>748201.40410000004</v>
@@ -1447,7 +1450,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1">
         <v>790909.73759999999</v>
@@ -1472,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1">
         <v>807229.18200000003</v>
@@ -1497,7 +1500,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1">
         <v>791951.40419999999</v>
@@ -1522,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
         <v>770250.01520000002</v>
@@ -1547,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>758270.84849999996</v>
@@ -1572,7 +1575,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D50" s="1">
         <v>763305.57070000004</v>
@@ -1597,7 +1600,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D51" s="1">
         <v>759659.73750000005</v>
@@ -1622,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1">
         <v>806534.73750000005</v>
@@ -1647,7 +1650,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1">
         <v>759659.73750000005</v>
@@ -1672,7 +1675,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1">
         <v>784486.12650000001</v>
@@ -1698,7 +1701,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1">
         <v>775979.18189999997</v>
@@ -1724,7 +1727,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1">
         <v>783097.23750000005</v>
@@ -1749,7 +1752,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1">
         <v>780493.07079999999</v>
@@ -1774,7 +1777,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1">
         <v>781708.34849999996</v>
@@ -1799,7 +1802,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
         <v>786569.45959999994</v>
@@ -1824,7 +1827,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
         <v>806881.95959999994</v>
@@ -1849,7 +1852,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1">
         <v>756881.95959999994</v>
@@ -1879,6 +1882,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
     <sortCondition ref="B1"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PowerNodes.xlsx
+++ b/PowerNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{290781DF-06F4-404F-BD97-0F54F375D440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A897ABC3-47BD-4DA3-A8F7-E4B778348869}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{290781DF-06F4-404F-BD97-0F54F375D440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8299BD05-263A-4D5D-B666-1A7D87C91FD0}"/>
   <bookViews>
-    <workbookView xWindow="8348" yWindow="952" windowWidth="9045" windowHeight="9286" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -764,7 +764,7 @@
         <v>35.063972380000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -787,7 +787,7 @@
         <v>35.083114459999997</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="0.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>26</v>
       </c>
